--- a/rules_table.xlsx
+++ b/rules_table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t xml:space="preserve">Методы</t>
   </si>
@@ -37,10 +37,16 @@
     <t xml:space="preserve">S_4 - Требование к скрытности (1/0)</t>
   </si>
   <si>
-    <t xml:space="preserve">S_5 - Реализуемость траектории (1/0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_6 — Наличие перегрузки (1/0)</t>
+    <t xml:space="preserve">S_5 - Реализуемость траектории Метода перехвата (1/0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_6- Реализуемость траектории Метода погони (1/0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_7 - Реализуемость траектории Метода манёвра (1/0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_8 — Наличие перегрузки (1/0)</t>
   </si>
   <si>
     <t xml:space="preserve">S_доп - Длина траектории (3/2/1)</t>
@@ -65,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -96,23 +102,9 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFC9211E"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00A933"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -212,7 +204,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -229,15 +221,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -249,7 +237,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -257,6 +245,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -265,11 +257,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -286,66 +282,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF00A933"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FFC9211E"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -354,13 +290,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.31"/>
@@ -394,63 +330,81 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="8" t="n">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5"/>
-      <c r="B3" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="11" t="n">
+      <c r="A3" s="4"/>
+      <c r="B3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>10</v>
+      <c r="A4" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B4" s="12" t="n">
         <v>1</v>
@@ -462,21 +416,27 @@
         <v>1</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="F4" s="12" t="n">
+        <v>0</v>
       </c>
       <c r="G4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="14" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>11</v>
+      <c r="A5" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B5" s="12" t="n">
         <v>1</v>
@@ -485,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F5" s="12" t="n">
         <v>0</v>
@@ -496,26 +456,32 @@
       <c r="G5" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="13" t="n">
+      <c r="H5" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
